--- a/data/excel/24-Soat-tolov-qilganlar-otkanlar.xlsx
+++ b/data/excel/24-Soat-tolov-qilganlar-otkanlar.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,27 +430,27 @@
         <v>@Khodzas</v>
       </c>
       <c r="D2" t="str">
-        <v>AgACAgIAAxkDAAIBnWPS4RuoN-3uRg5OnJVnIc4GY63JAALewzEbyG-ZSl3Hs0qHmbgRAQADAgADcwADLQQ</v>
+        <v>AAMCAgADGQMAA0tj06gqOsLdB94GDU6iPGvwZtvkcAAC5iEAApzkoUqPuvDzQUeleAEAB20AAy0E</v>
       </c>
       <c r="E2" t="str">
-        <v>2023-01-26T20:22:52.061Z</v>
+        <v>2023-01-27T10:32:11.894Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B3" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C3" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D3" t="str">
-        <v>AgACAgIAAxkDAAIBimPS2eu662RIPrny90Bwpkzqg1C8AALewzEbyG-ZSl3Hs0qHmbgRAQADAgADcwADLQQ</v>
+        <v>AAMCAgADGQMAA0pj06giBYjje1mzrEQlN8EcwsxeQwAC5SEAApzkoUrlXWK_5rgZ-wEAB20AAy0E</v>
       </c>
       <c r="E3" t="str">
-        <v>2023-01-26T19:52:11.941Z</v>
+        <v>2023-01-27T10:32:03.162Z</v>
       </c>
     </row>
     <row r="4">
@@ -464,49 +464,386 @@
         <v>@Khodzas</v>
       </c>
       <c r="D4" t="str">
-        <v>AgACAgIAAxkDAAIBiWPS2CkfYC7ybdvc9kF9R3Ug_90MAAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+        <v>AAMCAgADGQMAA0lj06geaFfwFu0ZWsCZ2jQzyGY6MQAC5CEAApzkoUpHJEaxvetCOwEAB20AAy0E</v>
       </c>
       <c r="E4" t="str">
-        <v>2023-01-26T19:44:41.454Z</v>
+        <v>2023-01-27T10:31:59.394Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B5" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C5" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D5" t="str">
-        <v>AgACAgIAAxkDAAIBhmPSz1_63VeYUNuWslnW8sE0xJ-_AAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+        <v>AAMCAgADGQMAA0hj06gZhmEnGyqHMExT2mLsYjwW1wAC4yEAApzkoUqY9nt9tddrBAEAB20AAy0E</v>
       </c>
       <c r="E5" t="str">
-        <v>2023-01-26T19:07:11.252Z</v>
+        <v>2023-01-27T10:31:53.457Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Abdulaziz</v>
+        <v>Abror</v>
       </c>
       <c r="B6" t="str">
-        <v>+99897777777</v>
+        <v>+998974772001</v>
       </c>
       <c r="C6" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D6" t="str">
-        <v>AgACAgIAAxkDAAIBhWPSztzHNAPJNMysKPdeLK4Lm9qLAALiwjEbyG-ZSq-jGE5LNTpEAQADAgADcwADLQQ</v>
+        <v>AAMCAgADGQMAA0dj06gTvFFvX4gTA6pD1Pgts09m0gAC4SEAApzkoUrVVa-tQ-V1nAEAB20AAy0E</v>
       </c>
       <c r="E6" t="str">
-        <v>2023-01-26T19:05:00.135Z</v>
+        <v>2023-01-27T10:31:48.335Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B7" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C7" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D7" t="str">
+        <v>AAMCAgADGQMAA0Zj06gOQtIYijfOiOCddrmboE0VeAAC4CEAApzkoUpf9ewbfe0fDAEAB20AAy0E</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2023-01-27T10:31:42.760Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B8" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C8" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D8" t="str">
+        <v>AAMCAgADGQMAA0Vj06fsbLuuaBCv57vFwcu2mZapAwAC3yEAApzkoUovqHGXwPPGhQEAB20AAy0E</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2023-01-27T10:31:08.742Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B9" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C9" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D9" t="str">
+        <v>AAMCAgADGQMAA0Rj06fn2t2l1-ml53pclnqxTGsAAeUAAt4hAAKc5KFKgKxqitJYOMwBAAdtAAMtBA</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2023-01-27T10:31:04.056Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B10" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C10" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D10" t="str">
+        <v>AAMCAgADGQMAA0Bj06aTZpMiW7eDtqOKUCvGK9-j4AACzCEAApzkoUqcBpvsbImSaQEAB20AAy0E</v>
+      </c>
+      <c r="E10" t="str">
+        <v>2023-01-27T10:25:24.626Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B11" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C11" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D11" t="str">
+        <v>AAMCAgADGQMAAz5j06aJZ8biPKDD89xmAb2p8zA-fgACyiEAApzkoUqc2TXPjsggmQEAB20AAy0E</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2023-01-27T10:25:13.752Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B12" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C12" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D12" t="str">
+        <v>AAMCAgADGQMAAzxj06aBeqNvx79H-IHpD6bO45BVbgACyCEAApzkoUqaf_qCfwxnlAEAB20AAy0E</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2023-01-27T10:25:06.217Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B13" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C13" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D13" t="str">
+        <v>AAMCAgADGQMAAzpj06Z4kANoi1_4nrHcm7bNnkaVLgACxiEAApzkoUpMp2UipNdB0wEAB20AAy0E</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2023-01-27T10:24:57.480Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B14" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C14" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D14" t="str">
+        <v>AAMCAgADGQMAAzdj06X1kRBTcuy5x7TwcsqetjqRpQACvCEAApzkoUoIvdUnC1_6xwEAB20AAy0E</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2023-01-27T10:22:45.827Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B15" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C15" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D15" t="str">
+        <v>AAMCAgADGQMAAzRj06Xu-61xmTidKdgQYfN8YPgV8wACuyEAApzkoUrBU4uLtbCTFgEAB20AAy0E</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2023-01-27T10:22:38.829Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C16" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D16" t="str">
+        <v>AAMCAgADGQMAAy9j06XjP7blfZ72fiZdpqX4UhS7ZgACuiEAApzkoUoO8RFM4Y_IIAEAB20AAy0E</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2023-01-27T10:22:28.371Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C17" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D17" t="str">
+        <v>AAMCAgADGQMAAy5j06XQRX09Lm_TMNWBKgsiZuEiWAACtyEAApzkoUpUdKVhQlbWUwEAB20AAy0E</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2023-01-27T10:22:09.329Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C18" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D18" t="str">
+        <v>AAMCAgADGQMAAy1j06XGqa50fy_JHmGMUmfmYOjNwAACtiEAApzkoUo0b5uL0zsCtAEAB20AAy0E</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2023-01-27T10:21:58.793Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C19" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D19" t="str">
+        <v>AAMCAgADGQMAAyxj06Wok0g__mMn-r6_Ougtmv8C_wACtCEAApzkoUrK87XvHlbGFQEAB20AAy0E</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2023-01-27T10:21:29.012Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C20" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D20" t="str">
+        <v>AAMCAgADGQMAAytj06V6HihzGDqo7W7njwABsm1GNWoAArMhAAKc5KFK8lWz19U43jYBAAdtAAMtBA</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2023-01-27T10:20:42.822Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C21" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D21" t="str">
+        <v>AAMCAgADGQMAAypj06SclrB0ncoinMV-TOarDxlU6wACqiEAApzkoUqtoEBpsbH91AEAB20AAy0E</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2023-01-27T10:17:00.655Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C22" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D22" t="str">
+        <v>AAMCAgADGQMAAylj06Rn3yp5huouND8GBOtvpOcasgACpyEAApzkoUpkY0MSBAvalwEAB20AAy0E</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2023-01-27T10:16:07.763Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B23" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C23" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D23" t="str">
+        <v>AAMCAgADGQMAAyhj06Q1LFUdbUU64AOr3SSOgB6MnAACpSEAApzkoUrk5-IlKcEEHAEAB20AAy0E</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2023-01-27T10:15:18.044Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Ulugbek Temirov</v>
+      </c>
+      <c r="B24" t="str">
+        <v>(93) 656 36 72</v>
+      </c>
+      <c r="C24" t="str">
+        <v>@ulugbek</v>
+      </c>
+      <c r="D24" t="str">
+        <v>AgACAgIAAxkDAAICOmPToayt0fAYFvDlmz_HO8Si9IUMAAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+      </c>
+      <c r="E24" t="str">
+        <v>2023-01-27T10:04:28.905Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Ulugbek Temirov</v>
+      </c>
+      <c r="B25" t="str">
+        <v>(93) 656 36 72</v>
+      </c>
+      <c r="D25" t="str">
+        <v>AgACAgIAAxkDAAICOWPToMzyzAbEfakr_AfnMtkB_TZ8AAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2023-01-27T10:00:44.665Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B26" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C26" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D26" t="str">
+        <v>AgACAgIAAxkDAAMlY9Of49ASzvY6wH7zjmrie3-_ybUAAnbBMRvu2aBKJCy4sDtn8uIBAAMCAANzAAMtBA</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2023-01-27T09:56:51.962Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/excel/24-Soat-tolov-qilganlar-otkanlar.xlsx
+++ b/data/excel/24-Soat-tolov-qilganlar-otkanlar.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,27 +413,27 @@
         <v>userName</v>
       </c>
       <c r="D1" t="str">
+        <v>addedAt</v>
+      </c>
+      <c r="E1" t="str">
         <v>file</v>
-      </c>
-      <c r="E1" t="str">
-        <v>addedAt</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B2" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C2" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D2" t="str">
-        <v>AAMCAgADGQMAA0tj06gqOsLdB94GDU6iPGvwZtvkcAAC5iEAApzkoUqPuvDzQUeleAEAB20AAy0E</v>
+        <v>2023-01-28T03:47:44.446Z</v>
       </c>
       <c r="E2" t="str">
-        <v>2023-01-27T10:32:11.894Z</v>
+        <v>BQACAgIAAxkDAAOmY9Sa4DMHTLYxUMcE5Mbbu7bqRL0AAmYhAAKc5KlKR2Q8-54dbbctBA</v>
       </c>
     </row>
     <row r="3">
@@ -447,27 +447,27 @@
         <v>@snvk</v>
       </c>
       <c r="D3" t="str">
-        <v>AAMCAgADGQMAA0pj06giBYjje1mzrEQlN8EcwsxeQwAC5SEAApzkoUrlXWK_5rgZ-wEAB20AAy0E</v>
+        <v>2023-01-28T03:47:42.739Z</v>
       </c>
       <c r="E3" t="str">
-        <v>2023-01-27T10:32:03.162Z</v>
+        <v>BQACAgIAAxkDAAOjY9Sa39TvkfajhGv_cHK2I2QQHr8AAmUhAAKc5KlKBsaaGH2iPQMtBA</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B4" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C4" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D4" t="str">
-        <v>AAMCAgADGQMAA0lj06geaFfwFu0ZWsCZ2jQzyGY6MQAC5CEAApzkoUpHJEaxvetCOwEAB20AAy0E</v>
+        <v>2023-01-28T03:47:40.984Z</v>
       </c>
       <c r="E4" t="str">
-        <v>2023-01-27T10:31:59.394Z</v>
+        <v>BQACAgIAAxkDAAOgY9Sa3YOwhpgwHQuZxUl4kWb7ZnIAAmQhAAKc5KlKcG3JyQtvRQotBA</v>
       </c>
     </row>
     <row r="5">
@@ -481,10 +481,10 @@
         <v>@snvk</v>
       </c>
       <c r="D5" t="str">
-        <v>AAMCAgADGQMAA0hj06gZhmEnGyqHMExT2mLsYjwW1wAC4yEAApzkoUqY9nt9tddrBAEAB20AAy0E</v>
+        <v>2023-01-28T03:47:39.178Z</v>
       </c>
       <c r="E5" t="str">
-        <v>2023-01-27T10:31:53.457Z</v>
+        <v>BQACAgIAAxkDAAObY9Sa24wqZt3rihMnIfwTk3zL7v0AAmIhAAKc5KlKw8Bp2JtT6TwtBA</v>
       </c>
     </row>
     <row r="6">
@@ -498,27 +498,27 @@
         <v>@snvk</v>
       </c>
       <c r="D6" t="str">
-        <v>AAMCAgADGQMAA0dj06gTvFFvX4gTA6pD1Pgts09m0gAC4SEAApzkoUrVVa-tQ-V1nAEAB20AAy0E</v>
+        <v>2023-01-28T03:47:37.406Z</v>
       </c>
       <c r="E6" t="str">
-        <v>2023-01-27T10:31:48.335Z</v>
+        <v>BQACAgIAAxkDAAOaY9Sa2hy5WjtBjkN8DVgWiZitiGoAAmEhAAKc5KlK11Th4Xuiwp0tBA</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B7" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C7" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D7" t="str">
-        <v>AAMCAgADGQMAA0Zj06gOQtIYijfOiOCddrmboE0VeAAC4CEAApzkoUpf9ewbfe0fDAEAB20AAy0E</v>
+        <v>2023-01-28T03:41:40.519Z</v>
       </c>
       <c r="E7" t="str">
-        <v>2023-01-27T10:31:42.760Z</v>
+        <v>BQACAgIAAxkDAAOXY9SZdnRavnSDdkn6JyhO_-SAsSoAAlghAAKc5KlK8mD8PWiX_NYtBA</v>
       </c>
     </row>
     <row r="8">
@@ -532,146 +532,137 @@
         <v>@snvk</v>
       </c>
       <c r="D8" t="str">
-        <v>AAMCAgADGQMAA0Vj06fsbLuuaBCv57vFwcu2mZapAwAC3yEAApzkoUovqHGXwPPGhQEAB20AAy0E</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2023-01-27T10:31:08.742Z</v>
+        <v>2023-01-28T03:41:17.360Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B9" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C9" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D9" t="str">
-        <v>AAMCAgADGQMAA0Rj06fn2t2l1-ml53pclnqxTGsAAeUAAt4hAAKc5KFKgKxqitJYOMwBAAdtAAMtBA</v>
-      </c>
-      <c r="E9" t="str">
-        <v>2023-01-27T10:31:04.056Z</v>
+        <v>2023-01-28T03:40:42.862Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B10" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C10" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D10" t="str">
-        <v>AAMCAgADGQMAA0Bj06aTZpMiW7eDtqOKUCvGK9-j4AACzCEAApzkoUqcBpvsbImSaQEAB20AAy0E</v>
+        <v>2023-01-28T03:36:46.883Z</v>
       </c>
       <c r="E10" t="str">
-        <v>2023-01-27T10:25:24.626Z</v>
+        <v>BQACAgIAAxkDAAOOY9SYUG4DhqJy6AuEnKsh0n0NqjsAAlEhAAKc5KlKD2p8j9hqxc4tBA</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B11" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C11" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D11" t="str">
-        <v>AAMCAgADGQMAAz5j06aJZ8biPKDD89xmAb2p8zA-fgACyiEAApzkoUqc2TXPjsggmQEAB20AAy0E</v>
-      </c>
-      <c r="E11" t="str">
-        <v>2023-01-27T10:25:13.752Z</v>
+        <v>2023-01-28T03:36:18.254Z</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Akrom</v>
+        <v xml:space="preserve">Makhmudkhodzaev Izzattillakhodza </v>
       </c>
       <c r="B12" t="str">
-        <v>+998971234567</v>
+        <v>(97) 762 20 03</v>
       </c>
       <c r="C12" t="str">
-        <v>@Khodzas</v>
+        <v>@khodza_i</v>
       </c>
       <c r="D12" t="str">
-        <v>AAMCAgADGQMAAzxj06aBeqNvx79H-IHpD6bO45BVbgACyCEAApzkoUqaf_qCfwxnlAEAB20AAy0E</v>
+        <v>2023-01-28T02:36:07.334Z</v>
       </c>
       <c r="E12" t="str">
-        <v>2023-01-27T10:25:06.217Z</v>
+        <v>BQACAgIAAxkDAAIDXGPUihcmypevHnVuSN8Fq5c7EgcwAAILJgACbiGhSlceVh8d7NKILQQ</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Akrom</v>
+        <v>Ulug'bek Temirov</v>
       </c>
       <c r="B13" t="str">
-        <v>+998971234567</v>
+        <v>(93) 656 36 72</v>
       </c>
       <c r="C13" t="str">
-        <v>@Khodzas</v>
+        <v>@ulugbek</v>
       </c>
       <c r="D13" t="str">
-        <v>AAMCAgADGQMAAzpj06Z4kANoi1_4nrHcm7bNnkaVLgACxiEAApzkoUpMp2UipNdB0wEAB20AAy0E</v>
+        <v>2023-01-27T19:46:01.683Z</v>
       </c>
       <c r="E13" t="str">
-        <v>2023-01-27T10:24:57.480Z</v>
+        <v>BQACAgIAAxkDAAIDSWPUKfh_OzF-f1KceS5GsH-wgKXQAAIcJQACbiGhStwi_H9Z5BEELQQ</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Akrom</v>
+        <v>Ulugbek Temirov</v>
       </c>
       <c r="B14" t="str">
-        <v>+998971234567</v>
+        <v>(93) 656 36 72</v>
       </c>
       <c r="C14" t="str">
-        <v>@Khodzas</v>
+        <v>@temirovulugbek</v>
       </c>
       <c r="D14" t="str">
-        <v>AAMCAgADGQMAAzdj06X1kRBTcuy5x7TwcsqetjqRpQACvCEAApzkoUoIvdUnC1_6xwEAB20AAy0E</v>
+        <v>2023-01-27T18:32:53.817Z</v>
       </c>
       <c r="E14" t="str">
-        <v>2023-01-27T10:22:45.827Z</v>
+        <v>BQACAgIAAxkDAAIDQGPUGNXuDjYY6p7GAXmHzK4Xa30CAAKFJAACbiGhSuONXEWF9r4OLQQ</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Akrom</v>
+        <v>New Test</v>
       </c>
       <c r="B15" t="str">
-        <v>+998971234567</v>
+        <v>(99) 999 99 99</v>
       </c>
       <c r="C15" t="str">
-        <v>@Khodzas</v>
+        <v>@ulugbek</v>
       </c>
       <c r="D15" t="str">
-        <v>AAMCAgADGQMAAzRj06Xu-61xmTidKdgQYfN8YPgV8wACuyEAApzkoUrBU4uLtbCTFgEAB20AAy0E</v>
+        <v>2023-01-27T18:25:09.479Z</v>
       </c>
       <c r="E15" t="str">
-        <v>2023-01-27T10:22:38.829Z</v>
+        <v>BQACAgIAAxkDAAIDO2PUFwUU75GNkYT_QbjnCLN4NzntAAJ3JAACbiGhSqSeZr7cZvHGLQQ</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Akrom</v>
+        <v>Ulugbek test</v>
       </c>
       <c r="B16" t="str">
-        <v>+998971234567</v>
+        <v>(11) 111 11 11</v>
       </c>
       <c r="C16" t="str">
-        <v>@Khodzas</v>
+        <v>@test</v>
       </c>
       <c r="D16" t="str">
-        <v>AAMCAgADGQMAAy9j06XjP7blfZ72fiZdpqX4UhS7ZgACuiEAApzkoUoO8RFM4Y_IIAEAB20AAy0E</v>
+        <v>2023-01-27T18:22:55.606Z</v>
       </c>
       <c r="E16" t="str">
-        <v>2023-01-27T10:22:28.371Z</v>
+        <v>BQACAgIAAxkDAAIDNmPUFn-MBOGOoLHz9Q9KL5pk9ApAAAJyJAACbiGhShQ8Rz73rdP_LQQ</v>
       </c>
     </row>
     <row r="17">
@@ -685,10 +676,10 @@
         <v>@Khodzas</v>
       </c>
       <c r="D17" t="str">
-        <v>AAMCAgADGQMAAy5j06XQRX09Lm_TMNWBKgsiZuEiWAACtyEAApzkoUpUdKVhQlbWUwEAB20AAy0E</v>
+        <v>2023-01-27T17:39:07.472Z</v>
       </c>
       <c r="E17" t="str">
-        <v>2023-01-27T10:22:09.329Z</v>
+        <v>BQACAgIAAxkDAAIDKGPUDDu_he8H7G9M7SA13fadK9pzAAINJAACbiGhSv-WYcuguTKQLQQ</v>
       </c>
     </row>
     <row r="18">
@@ -702,44 +693,44 @@
         <v>@Khodzas</v>
       </c>
       <c r="D18" t="str">
-        <v>AAMCAgADGQMAAy1j06XGqa50fy_JHmGMUmfmYOjNwAACtiEAApzkoUo0b5uL0zsCtAEAB20AAy0E</v>
+        <v>2023-01-27T17:38:15.928Z</v>
       </c>
       <c r="E18" t="str">
-        <v>2023-01-27T10:21:58.793Z</v>
+        <v>BQACAgIAAxkDAAIDJWPUDAcp0OHwS4T4bXyvSo0ly9KmAAILJAACbiGhSqt7iJOot4BQLQQ</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B19" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C19" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D19" t="str">
-        <v>AAMCAgADGQMAAyxj06Wok0g__mMn-r6_Ougtmv8C_wACtCEAApzkoUrK87XvHlbGFQEAB20AAy0E</v>
+        <v>2023-01-27T17:32:47.340Z</v>
       </c>
       <c r="E19" t="str">
-        <v>2023-01-27T10:21:29.012Z</v>
+        <v>BQACAgIAAxkDAAIDIGPUCr8sIUAHcyvnMrq_VLstoieCAAL3IwACbiGhStvsx_Kf0qokLQQ</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B20" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C20" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D20" t="str">
-        <v>AAMCAgADGQMAAytj06V6HihzGDqo7W7njwABsm1GNWoAArMhAAKc5KFK8lWz19U43jYBAAdtAAMtBA</v>
+        <v>2023-01-27T17:32:14.985Z</v>
       </c>
       <c r="E20" t="str">
-        <v>2023-01-27T10:20:42.822Z</v>
+        <v>BQACAgIAAxkDAAIDHWPUCp4YSYF3Fx4Sh9XDmEpepcl8AAL0IwACbiGhSoP-KITh3ajuLQQ</v>
       </c>
     </row>
     <row r="21">
@@ -753,10 +744,10 @@
         <v>@Khodzas</v>
       </c>
       <c r="D21" t="str">
-        <v>AAMCAgADGQMAAypj06SclrB0ncoinMV-TOarDxlU6wACqiEAApzkoUqtoEBpsbH91AEAB20AAy0E</v>
+        <v>2023-01-27T14:50:40.036Z</v>
       </c>
       <c r="E21" t="str">
-        <v>2023-01-27T10:17:00.655Z</v>
+        <v>BQACAgIAAxkDAAICymPT5L_72C-E-P6BjF9bP6TCGWI7AALwIwACbiGZSuHaRt_1WqocLQQ</v>
       </c>
     </row>
     <row r="22">
@@ -770,10 +761,10 @@
         <v>@Khodzas</v>
       </c>
       <c r="D22" t="str">
-        <v>AAMCAgADGQMAAylj06Rn3yp5huouND8GBOtvpOcasgACpyEAApzkoUpkY0MSBAvalwEAB20AAy0E</v>
+        <v>2023-01-27T14:50:36.934Z</v>
       </c>
       <c r="E22" t="str">
-        <v>2023-01-27T10:16:07.763Z</v>
+        <v>BQACAgIAAxkDAAICx2PT5LwvL3JnihSZ6GA8qAR9ukH2AALvIwACbiGZSlUNm0nNdPgZLQQ</v>
       </c>
     </row>
     <row r="23">
@@ -787,63 +778,1675 @@
         <v>@Khodzas</v>
       </c>
       <c r="D23" t="str">
-        <v>AAMCAgADGQMAAyhj06Q1LFUdbUU64AOr3SSOgB6MnAACpSEAApzkoUrk5-IlKcEEHAEAB20AAy0E</v>
+        <v>2023-01-27T14:50:34.578Z</v>
       </c>
       <c r="E23" t="str">
-        <v>2023-01-27T10:15:18.044Z</v>
+        <v>BQACAgIAAxkDAAICxGPT5LohBp_gNKDWOui53-1-1xhaAALuIwACbiGZStXygXqHZMVcLQQ</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Ulugbek Temirov</v>
+        <v>Akrom</v>
       </c>
       <c r="B24" t="str">
-        <v>(93) 656 36 72</v>
+        <v>+998971234567</v>
       </c>
       <c r="C24" t="str">
-        <v>@ulugbek</v>
+        <v>@Khodzas</v>
       </c>
       <c r="D24" t="str">
-        <v>AgACAgIAAxkDAAICOmPToayt0fAYFvDlmz_HO8Si9IUMAAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+        <v>2023-01-27T14:50:31.555Z</v>
       </c>
       <c r="E24" t="str">
-        <v>2023-01-27T10:04:28.905Z</v>
+        <v>BQACAgIAAxkDAAICwWPT5LcSikXfDM0Ykv8uUIKwjFBaAALtIwACbiGZSljKIGuGPjIELQQ</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Ulugbek Temirov</v>
+        <v>Akrom</v>
       </c>
       <c r="B25" t="str">
-        <v>(93) 656 36 72</v>
+        <v>+998971234567</v>
+      </c>
+      <c r="C25" t="str">
+        <v>@Khodzas</v>
       </c>
       <c r="D25" t="str">
-        <v>AgACAgIAAxkDAAICOWPToMzyzAbEfakr_AfnMtkB_TZ8AAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+        <v>2023-01-27T14:48:46.762Z</v>
       </c>
       <c r="E25" t="str">
-        <v>2023-01-27T10:00:44.665Z</v>
+        <v>BQACAgIAAxkDAAICvmPT5E4nd0Ai-toElXVyyqUf-upkAALsIwACbiGZShaDF85jJC31LQQ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Akrom</v>
+        <v>Abror</v>
       </c>
       <c r="B26" t="str">
-        <v>+998971234567</v>
+        <v>+998974772001</v>
       </c>
       <c r="C26" t="str">
-        <v>@Khodzas</v>
+        <v>@snvk</v>
       </c>
       <c r="D26" t="str">
+        <v>2023-01-27T14:48:13.670Z</v>
+      </c>
+      <c r="E26" t="str">
+        <v>BQACAgIAAxkDAAICu2PT5C1y_O2vYMypnNpoiPrlUhadAALqIwACbiGZSq619V7AybxqLQQ</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B27" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C27" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2023-01-27T14:48:10.596Z</v>
+      </c>
+      <c r="E27" t="str">
+        <v>BQACAgIAAxkDAAICuGPT5Cp4rSH8nRn9Q4CFlRcYI4alAALpIwACbiGZSmg0BG3t3FTxLQQ</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B28" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C28" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2023-01-27T14:48:05.410Z</v>
+      </c>
+      <c r="E28" t="str">
+        <v>BQACAgIAAxkDAAICtWPT5CUiCYe3wPLyGDqQyClSHyWoAALoIwACbiGZSgS6mBUqOSZcLQQ</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B29" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C29" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2023-01-27T14:48:03.848Z</v>
+      </c>
+      <c r="E29" t="str">
+        <v>BQACAgIAAxkDAAICsmPT5CMxctm40WU1bzDWG7CQtILgAALnIwACbiGZSj40w4w4Q3FYLQQ</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B30" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C30" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2023-01-27T14:47:42.602Z</v>
+      </c>
+      <c r="E30" t="str">
+        <v>BQACAgIAAxkDAAICr2PT5A1RAktMl5pyDE-PgOsJxq0KAALjIwACbiGZSq1x7w-cxodVLQQ</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B31" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C31" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2023-01-27T14:46:37.897Z</v>
+      </c>
+      <c r="E31" t="str">
+        <v>BQACAgIAAxkDAAICrGPT481TuExrH4coWvTyAY_4NoukAALbIwACbiGZSnPBoRrtVdySLQQ</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B32" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C32" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2023-01-27T14:30:09.047Z</v>
+      </c>
+      <c r="E32" t="str">
+        <v>BQACAgIAAxkDAAIClWPT3_DPjZINHBZurtX4Nr6J8X5LAAK_IwACbiGZSnH0EL0dEigvLQQ</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B33" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C33" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2023-01-27T14:29:54.686Z</v>
+      </c>
+      <c r="E33" t="str">
+        <v>BQACAgIAAxkDAAICk2PT3-InXZc3f7OCT22IEfGB51zlAAK8IwACbiGZSiirpfwhqvzCLQQ</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B34" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C34" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2023-01-27T14:09:31.751Z</v>
+      </c>
+      <c r="E34" t="str">
+        <v>BQACAgIAAxkDAAICkWPT2xvp3hjgxJSI3XI8ZKLZ_rLhAAKbIwACbiGZSpzz2cvWE0NPLQQ</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B35" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C35" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2023-01-27T14:09:05.107Z</v>
+      </c>
+      <c r="E35" t="str">
+        <v>BQACAgIAAxkDAAICj2PT2wABfnmb4odiWe3t3hpKnljH2AACmSMAAm4hmUqErZvQvTNCDS0E</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B36" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C36" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2023-01-27T14:05:21.939Z</v>
+      </c>
+      <c r="E36" t="str">
+        <v>BQACAgIAAxkDAAICi2PT2h1ZykKlUrj7qz1DPjoxh7tWAAKRIwACbiGZSsLP10MdrqlXLQQ</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B37" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C37" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2023-01-27T13:56:17.816Z</v>
+      </c>
+      <c r="E37" t="str">
+        <v>BQACAgIAAxkDAAICiWPT1_3QtYUlhAyLsn6pFCSkSp8hAAJ7IwACbiGZSiJSLap_baqbLQQ</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B38" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C38" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2023-01-27T13:50:56.551Z</v>
+      </c>
+      <c r="E38" t="str">
+        <v>BQACAgIAAxkDAAICh2PT1r9vxEiLYtLrk36U736clc1JAAJ1IwACbiGZSityWRCJ7zmoLQQ</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B39" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C39" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2023-01-27T13:17:24.049Z</v>
+      </c>
+      <c r="E39" t="str">
+        <v>BQACAgIAAxkDAAICeGPTzuN-NdYYsmb1j72-tSMU-XhSAAI4IwACbiGZSplflBBLlCP-LQQ</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B40" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C40" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2023-01-27T13:16:57.036Z</v>
+      </c>
+      <c r="E40" t="str">
+        <v>BQACAgIAAxkDAAICd2PTzsgim2kVulAVWMaihUZrOEgwAAI2IwACbiGZSnxVCoOxXN9pLQQ</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B41" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C41" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2023-01-27T13:13:00.656Z</v>
+      </c>
+      <c r="E41" t="str">
+        <v>BQACAgIAAxkDAAICdmPTzdzCo_vjwRH72rLniCTsOV11AAIzIwACbiGZSqMzOnpMT9X-LQQ</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B42" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C42" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2023-01-27T13:11:45.544Z</v>
+      </c>
+      <c r="E42" t="str">
+        <v>BQACAgIAAxkDAAICdWPTzZG80EFKAAHMgtpJ1WFt95RV3gACMCMAAm4hmUo2Fy6TYRvhTS0E</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B43" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C43" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2023-01-27T13:09:24.054Z</v>
+      </c>
+      <c r="E43" t="str">
+        <v>BQACAgIAAxkDAAICc2PTzQMqrsa7t6Y_fkzspUOuVsWCAAImIwACbiGZSk8XRQ2pBw9hLQQ</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B44" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C44" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2023-01-27T13:04:56.734Z</v>
+      </c>
+      <c r="E44" t="str">
+        <v>BQACAgIAAxkDAAICcWPTy_h97DTlV4rfHmLgTUPgortCAAIeIwACbiGZSr7vOrG1FwW5LQQ</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B45" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C45" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2023-01-27T12:27:17.700Z</v>
+      </c>
+      <c r="E45" t="str">
+        <v>BQACAgIAAxkDAAICb2PTwyVHn_vCOUSCYNobspQOBdfYAAIBIwACbiGZSqeG_Ma2-q3dLQQ</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B46" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C46" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2023-01-27T12:26:01.451Z</v>
+      </c>
+      <c r="E46" t="str">
+        <v>BQACAgIAAxkDAAICbWPTwtk5195zoyhyp6z1dTQDKPpkAAL_IgACbiGZSihDRdECAdwsLQQ</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B47" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C47" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2023-01-27T12:14:43.814Z</v>
+      </c>
+      <c r="E47" t="str">
+        <v>BQACAgIAAxkDAAICbGPTwDP_te4EB0fUHFo1WUpq7o53AALnIgACbiGZSiX30ZGEm1PbLQQ</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B48" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C48" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2023-01-27T12:14:18.084Z</v>
+      </c>
+      <c r="E48" t="str">
+        <v>BQACAgIAAxkDAAICa2PTwBl9aB0wms5_gHHL7DlYB1LvAALkIgACbiGZSosPChoRCxadLQQ</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B49" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C49" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2023-01-27T12:13:35.610Z</v>
+      </c>
+      <c r="E49" t="str">
+        <v>BQACAgIAAxkDAAICamPTv-_LnEcvG5qZE2qiCiW9CWZXAALiIgACbiGZSmjD7WQmQqkMLQQ</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B50" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C50" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2023-01-27T12:11:08.016Z</v>
+      </c>
+      <c r="E50" t="str">
+        <v>BQACAgIAAxkDAAICaWPTv1uPYlsAAffxaqfjJBddw7S_HgAC2iIAAm4hmUqhsrduKsCTSy0E</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B51" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C51" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2023-01-27T12:10:35.989Z</v>
+      </c>
+      <c r="E51" t="str">
+        <v>BQACAgIAAxkDAAICaGPTvzt7OENvEAQdvECB-WSDm-aOAALYIgACbiGZStOyk2f_ZMc0LQQ</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B52" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C52" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2023-01-27T12:01:44.023Z</v>
+      </c>
+      <c r="E52" t="str">
+        <v>BQACAgIAAxkDAAICZ2PTvSeVAAGb6mPNfgwVne69rp6RlwACxCIAAm4hmUpgM3IroeBTKS0E</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B53" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C53" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2023-01-27T12:00:15.417Z</v>
+      </c>
+      <c r="E53" t="str">
+        <v>BQACAgIAAxkDAAICZmPTvM6ic0QHKgAB3G8St-LqH3tzxgACwiIAAm4hmUruNkxXBUVIUy0E</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B54" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C54" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2023-01-27T11:59:48.318Z</v>
+      </c>
+      <c r="E54" t="str">
+        <v>BQACAgIAAxkDAAICZWPTvLNL0uAYUeE3HhpaFFrexZFzAALBIgACbiGZSgEW3bL95H12LQQ</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B55" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C55" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2023-01-27T11:59:06.684Z</v>
+      </c>
+      <c r="E55" t="str">
+        <v>BQACAgIAAxkDAAICZGPTvIqg9Mx68snY6BT37ueqYYSJAAK_IgACbiGZSk6Hm9iQxv96LQQ</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B56" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C56" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2023-01-27T11:57:59.288Z</v>
+      </c>
+      <c r="E56" t="str">
+        <v>BQACAgIAAxkDAAICY2PTvEbY28EvRL3EcAAB-DZsb0utwgACvSIAAm4hmUpzn_Op5iLMRi0E</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B57" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C57" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2023-01-27T11:55:55.746Z</v>
+      </c>
+      <c r="E57" t="str">
+        <v>BQACAgIAAxkDAAICYmPTu8uXcH4cC0J3BhLruV47ragqAAK4IgACbiGZSrBeYDgID0v-LQQ</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B58" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C58" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2023-01-27T11:54:33.705Z</v>
+      </c>
+      <c r="E58" t="str">
+        <v>BQACAgIAAxkDAAICYGPTu3lltJVKUHW3Z_vZKCrYnOlKAAK2IgACbiGZSh8PSeBa0puiLQQ</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B59" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C59" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2023-01-27T11:53:50.273Z</v>
+      </c>
+      <c r="E59" t="str">
+        <v>BQACAgIAAxkDAAICXmPTu038AdvIWilxccq-knad_hiIAAK0IgACbiGZSnDh8Q2N7XLrLQQ</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B60" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C60" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2023-01-27T11:50:41.895Z</v>
+      </c>
+      <c r="E60" t="str">
+        <v>BQACAgIAAxkDAAICXGPTupGapv2rKxIadFFnQYsf-uJ6AAKxIgACbiGZSjSwG2mG4WCRLQQ</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B61" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C61" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2023-01-27T11:42:57.529Z</v>
+      </c>
+      <c r="E61" t="str">
+        <v>BQACAgIAAxkDAAICW2PTuMG5u7q7R7P6pOgW6pujXr9uAAKnIgACbiGZSip8p1VdYr5RLQQ</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B62" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C62" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2023-01-27T11:38:30.834Z</v>
+      </c>
+      <c r="E62" t="str">
+        <v>BQACAgIAAxkDAAICWmPTt7aCIbBPMPE2lUlehlY2GifzAAKfIgACbiGZSkEp7rlPQh8MLQQ</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B63" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C63" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2023-01-27T11:19:56.168Z</v>
+      </c>
+      <c r="E63" t="str">
+        <v>BQACAgIAAxkDAAICWWPTs1vv1ORnJXryaBOT4fUZcJ_CAAKPIgACbiGZStpvYvz6HmvFLQQ</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B64" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C64" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2023-01-27T11:16:26.754Z</v>
+      </c>
+      <c r="E64" t="str">
+        <v>BQACAgIAAxkDAAICWGPTsoqRNDkoQR8VxpTqEF315kx5AAKNIgACbiGZSmCxaxu4130nLQQ</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B65" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C65" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2023-01-27T11:15:23.082Z</v>
+      </c>
+      <c r="E65" t="str">
+        <v>BQACAgIAAxkDAAICV2PTskrb34Wub9AzVe9bDfRIEbh5AAKMIgACbiGZSkXECFnZhsuDLQQ</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B66" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C66" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2023-01-27T11:14:41.249Z</v>
+      </c>
+      <c r="E66" t="str">
+        <v>BQACAgIAAxkDAAICVmPTsiAlpCO3S2aJcgnki3WS7xTBAAKLIgACbiGZSseKHLKfX93zLQQ</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B67" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C67" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2023-01-27T11:14:00.276Z</v>
+      </c>
+      <c r="E67" t="str">
+        <v>BQACAgIAAxkDAAICVWPTsfcxWkMzveZNTIEP77zQ6ZGyAAKKIgACbiGZSiMQCwuZIoN2LQQ</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B68" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C68" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2023-01-27T11:12:15.099Z</v>
+      </c>
+      <c r="E68" t="str">
+        <v>BQACAgIAAxkDAAICVGPTsY5RfxeraYhFzpSgRCSC1n56AAKFIgACbiGZSj8Hdcfay2AsLQQ</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B69" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C69" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2023-01-27T10:59:18.986Z</v>
+      </c>
+      <c r="E69" t="str">
+        <v>BQACAgIAAxkDAAICU2PTrobU78AB053CqEaWZEzr5KshAAJzIgACbiGZSlBw6c-xreLQLQQ</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B70" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C70" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2023-01-27T10:58:53.765Z</v>
+      </c>
+      <c r="E70" t="str">
+        <v>BQACAgIAAxkDAAICUWPTrm1xN52cqV4P86g46v4jpyuPAAJyIgACbiGZSu6Kls2Sx1U1LQQ</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B71" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C71" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2023-01-27T10:58:03.069Z</v>
+      </c>
+      <c r="E71" t="str">
+        <v>BQACAgIAAxkDAAICT2PTrjp4p2ndgZy0dN2SXWgVqS9OAAJxIgACbiGZSjFH5N35ZoqMLQQ</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B72" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C72" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2023-01-27T10:57:50.027Z</v>
+      </c>
+      <c r="E72" t="str">
+        <v>BQACAgIAAxkDAAICTGPTri21fyv0cw-a5UNkRlHcd7G7AAJwIgACbiGZSh316SzVqIEqLQQ</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B73" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C73" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2023-01-27T10:57:33.586Z</v>
+      </c>
+      <c r="E73" t="str">
+        <v>BQACAgIAAxkDAAICSmPTrh0oQxFymih7wb92eVmeYEjsAAJvIgACbiGZSn9hVJAPw2yKLQQ</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B74" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C74" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2023-01-27T10:57:25.797Z</v>
+      </c>
+      <c r="E74" t="str">
+        <v>BQACAgIAAxkDAAICSWPTrhU3mIfQEj4QEicIQmCvqT8VAAJuIgACbiGZSqNkmASKt04BLQQ</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B75" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C75" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2023-01-27T10:57:11.491Z</v>
+      </c>
+      <c r="E75" t="str">
+        <v>BQACAgIAAxkDAAICR2PTrgcDROgKL-R2avF5spgbRFVNAAJtIgACbiGZSpoMrahDOqIjLQQ</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B76" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C76" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2023-01-27T10:55:08.315Z</v>
+      </c>
+      <c r="E76" t="str">
+        <v>BQACAgIAAxkDAAICRWPTrYxntnv_CT8Q5JWKYpUmZRTwAAJsIgACbiGZSs9iE-so8A5jLQQ</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B77" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C77" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2023-01-27T10:55:06.510Z</v>
+      </c>
+      <c r="E77" t="str">
+        <v>BQACAgIAAxkDAAICRGPTrYrF6JK3vllwTZaaUESgqWoFAAJrIgACbiGZSt0DcWyzt-SmLQQ</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B78" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C78" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2023-01-27T10:54:04.850Z</v>
+      </c>
+      <c r="E78" t="str">
+        <v>BQACAgIAAxkDAAICQ2PTrUz5ovtVT5N4iJP3lLmlhDwDAAJqIgACbiGZSk0J8toCro3BLQQ</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B79" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C79" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2023-01-27T10:53:58.708Z</v>
+      </c>
+      <c r="E79" t="str">
+        <v>BQACAgIAAxkDAAICQmPTrUYITidrRwzFWZcefvgXZujMAAJpIgACbiGZSg68bXxYadsWLQQ</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B80" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C80" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2023-01-27T10:50:56.105Z</v>
+      </c>
+      <c r="E80" t="str">
+        <v>BQACAgIAAxkDAAICPWPTrI9ldOcAAQFuhdn4yi3o00p3gwACYyIAAm4hmUrY_7mfr6POMy0E</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B81" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C81" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2023-01-27T10:32:11.894Z</v>
+      </c>
+      <c r="E81" t="str">
+        <v>AAMCAgADGQMAA0tj06gqOsLdB94GDU6iPGvwZtvkcAAC5iEAApzkoUqPuvDzQUeleAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B82" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C82" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2023-01-27T10:32:03.162Z</v>
+      </c>
+      <c r="E82" t="str">
+        <v>AAMCAgADGQMAA0pj06giBYjje1mzrEQlN8EcwsxeQwAC5SEAApzkoUrlXWK_5rgZ-wEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B83" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C83" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2023-01-27T10:31:59.394Z</v>
+      </c>
+      <c r="E83" t="str">
+        <v>AAMCAgADGQMAA0lj06geaFfwFu0ZWsCZ2jQzyGY6MQAC5CEAApzkoUpHJEaxvetCOwEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B84" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C84" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2023-01-27T10:31:53.457Z</v>
+      </c>
+      <c r="E84" t="str">
+        <v>AAMCAgADGQMAA0hj06gZhmEnGyqHMExT2mLsYjwW1wAC4yEAApzkoUqY9nt9tddrBAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B85" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C85" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2023-01-27T10:31:48.335Z</v>
+      </c>
+      <c r="E85" t="str">
+        <v>AAMCAgADGQMAA0dj06gTvFFvX4gTA6pD1Pgts09m0gAC4SEAApzkoUrVVa-tQ-V1nAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B86" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C86" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2023-01-27T10:31:42.760Z</v>
+      </c>
+      <c r="E86" t="str">
+        <v>AAMCAgADGQMAA0Zj06gOQtIYijfOiOCddrmboE0VeAAC4CEAApzkoUpf9ewbfe0fDAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Abror</v>
+      </c>
+      <c r="B87" t="str">
+        <v>+998974772001</v>
+      </c>
+      <c r="C87" t="str">
+        <v>@snvk</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2023-01-27T10:31:08.742Z</v>
+      </c>
+      <c r="E87" t="str">
+        <v>AAMCAgADGQMAA0Vj06fsbLuuaBCv57vFwcu2mZapAwAC3yEAApzkoUovqHGXwPPGhQEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B88" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C88" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2023-01-27T10:31:04.056Z</v>
+      </c>
+      <c r="E88" t="str">
+        <v>AAMCAgADGQMAA0Rj06fn2t2l1-ml53pclnqxTGsAAeUAAt4hAAKc5KFKgKxqitJYOMwBAAdtAAMtBA</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B89" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C89" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2023-01-27T10:25:24.626Z</v>
+      </c>
+      <c r="E89" t="str">
+        <v>AAMCAgADGQMAA0Bj06aTZpMiW7eDtqOKUCvGK9-j4AACzCEAApzkoUqcBpvsbImSaQEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B90" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C90" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2023-01-27T10:25:13.752Z</v>
+      </c>
+      <c r="E90" t="str">
+        <v>AAMCAgADGQMAAz5j06aJZ8biPKDD89xmAb2p8zA-fgACyiEAApzkoUqc2TXPjsggmQEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B91" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C91" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2023-01-27T10:25:06.217Z</v>
+      </c>
+      <c r="E91" t="str">
+        <v>AAMCAgADGQMAAzxj06aBeqNvx79H-IHpD6bO45BVbgACyCEAApzkoUqaf_qCfwxnlAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B92" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C92" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2023-01-27T10:24:57.480Z</v>
+      </c>
+      <c r="E92" t="str">
+        <v>AAMCAgADGQMAAzpj06Z4kANoi1_4nrHcm7bNnkaVLgACxiEAApzkoUpMp2UipNdB0wEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B93" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C93" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2023-01-27T10:22:45.827Z</v>
+      </c>
+      <c r="E93" t="str">
+        <v>AAMCAgADGQMAAzdj06X1kRBTcuy5x7TwcsqetjqRpQACvCEAApzkoUoIvdUnC1_6xwEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B94" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C94" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2023-01-27T10:22:38.829Z</v>
+      </c>
+      <c r="E94" t="str">
+        <v>AAMCAgADGQMAAzRj06Xu-61xmTidKdgQYfN8YPgV8wACuyEAApzkoUrBU4uLtbCTFgEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B95" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C95" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2023-01-27T10:22:28.371Z</v>
+      </c>
+      <c r="E95" t="str">
+        <v>AAMCAgADGQMAAy9j06XjP7blfZ72fiZdpqX4UhS7ZgACuiEAApzkoUoO8RFM4Y_IIAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B96" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C96" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2023-01-27T10:22:09.329Z</v>
+      </c>
+      <c r="E96" t="str">
+        <v>AAMCAgADGQMAAy5j06XQRX09Lm_TMNWBKgsiZuEiWAACtyEAApzkoUpUdKVhQlbWUwEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B97" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C97" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2023-01-27T10:21:58.793Z</v>
+      </c>
+      <c r="E97" t="str">
+        <v>AAMCAgADGQMAAy1j06XGqa50fy_JHmGMUmfmYOjNwAACtiEAApzkoUo0b5uL0zsCtAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B98" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C98" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2023-01-27T10:21:29.012Z</v>
+      </c>
+      <c r="E98" t="str">
+        <v>AAMCAgADGQMAAyxj06Wok0g__mMn-r6_Ougtmv8C_wACtCEAApzkoUrK87XvHlbGFQEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B99" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C99" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2023-01-27T10:20:42.822Z</v>
+      </c>
+      <c r="E99" t="str">
+        <v>AAMCAgADGQMAAytj06V6HihzGDqo7W7njwABsm1GNWoAArMhAAKc5KFK8lWz19U43jYBAAdtAAMtBA</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B100" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C100" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D100" t="str">
+        <v>2023-01-27T10:17:00.655Z</v>
+      </c>
+      <c r="E100" t="str">
+        <v>AAMCAgADGQMAAypj06SclrB0ncoinMV-TOarDxlU6wACqiEAApzkoUqtoEBpsbH91AEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B101" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C101" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2023-01-27T10:16:07.763Z</v>
+      </c>
+      <c r="E101" t="str">
+        <v>AAMCAgADGQMAAylj06Rn3yp5huouND8GBOtvpOcasgACpyEAApzkoUpkY0MSBAvalwEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B102" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C102" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2023-01-27T10:15:18.044Z</v>
+      </c>
+      <c r="E102" t="str">
+        <v>AAMCAgADGQMAAyhj06Q1LFUdbUU64AOr3SSOgB6MnAACpSEAApzkoUrk5-IlKcEEHAEAB20AAy0E</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Ulugbek Temirov</v>
+      </c>
+      <c r="B103" t="str">
+        <v>(93) 656 36 72</v>
+      </c>
+      <c r="C103" t="str">
+        <v>@ulugbek</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2023-01-27T10:04:28.905Z</v>
+      </c>
+      <c r="E103" t="str">
+        <v>AgACAgIAAxkDAAICOmPToayt0fAYFvDlmz_HO8Si9IUMAAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Ulugbek Temirov</v>
+      </c>
+      <c r="B104" t="str">
+        <v>(93) 656 36 72</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2023-01-27T10:00:44.665Z</v>
+      </c>
+      <c r="E104" t="str">
+        <v>AgACAgIAAxkDAAICOWPToMzyzAbEfakr_AfnMtkB_TZ8AAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B105" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C105" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2023-01-27T09:56:51.962Z</v>
+      </c>
+      <c r="E105" t="str">
         <v>AgACAgIAAxkDAAMlY9Of49ASzvY6wH7zjmrie3-_ybUAAnbBMRvu2aBKJCy4sDtn8uIBAAMCAANzAAMtBA</v>
       </c>
-      <c r="E26" t="str">
-        <v>2023-01-27T09:56:51.962Z</v>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Ulugbek Temirov</v>
+      </c>
+      <c r="B106" t="str">
+        <v>(93) 656 36 72</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2023-01-27T08:16:46.239Z</v>
+      </c>
+      <c r="E106" t="str">
+        <v>AgACAgIAAxkDAAICOGPTiG5HL4POSblmOwJvSvICrbv9AAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B107" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C107" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D107" t="str">
+        <v>2023-01-27T07:13:24.836Z</v>
+      </c>
+      <c r="E107" t="str">
+        <v>AgACAgIAAxkDAAMkY9N5kz24obAOgjp55mU0RrmoKj0AAjrIMRvu2ZhK5ISa40JJtc0BAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B108" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C108" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D108" t="str">
+        <v>2023-01-27T07:12:23.186Z</v>
+      </c>
+      <c r="E108" t="str">
+        <v>AgACAgIAAxkDAAMjY9N5V5tA9EMyoMlI53llCWPBUJgAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B109" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C109" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2023-01-27T07:11:18.770Z</v>
+      </c>
+      <c r="E109" t="str">
+        <v>AgACAgIAAxkDAAMiY9N5Fvnw5DAV6_67ZSwoVr5QJVMAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B110" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C110" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D110" t="str">
+        <v>2023-01-27T07:08:44.668Z</v>
+      </c>
+      <c r="E110" t="str">
+        <v>AgACAgIAAxkDAAMhY9N4fCe884xTZDiq95YNGTMzeT8AAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B111" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C111" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2023-01-27T07:08:14.603Z</v>
+      </c>
+      <c r="E111" t="str">
+        <v>AgACAgIAAxkDAAMgY9N4XlRbhp1TSEHomUbs7SDaXJ4AAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B112" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C112" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2023-01-27T07:07:31.519Z</v>
+      </c>
+      <c r="E112" t="str">
+        <v>AgACAgIAAxkDAAMfY9N4M8nhnMMRE0Kt5EAQEpQsW0kAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B113" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C113" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D113" t="str">
+        <v>2023-01-27T07:07:28.733Z</v>
+      </c>
+      <c r="E113" t="str">
+        <v>AgACAgIAAxkDAAMeY9N4MPQrE4WM4p1Jbei-rr-8CdIAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B114" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C114" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D114" t="str">
+        <v>2023-01-27T07:07:26.389Z</v>
+      </c>
+      <c r="E114" t="str">
+        <v>AgACAgIAAxkDAAMdY9N4LkHPcd5YJzridRrTroA0RzMAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B115" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C115" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D115" t="str">
+        <v>2023-01-27T07:07:23.582Z</v>
+      </c>
+      <c r="E115" t="str">
+        <v>AgACAgIAAxkDAAMcY9N4K-jugyHK1TYqTY67tQbrZ2gAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B116" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C116" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2023-01-27T07:07:20.389Z</v>
+      </c>
+      <c r="E116" t="str">
+        <v>AgACAgIAAxkDAAMbY9N4KLc49SM25nK1GbKBwJ4-7MAAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B117" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C117" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D117" t="str">
+        <v>2023-01-27T07:07:17.336Z</v>
+      </c>
+      <c r="E117" t="str">
+        <v>AgACAgIAAxkDAAMaY9N4JYictoV1pF0bvVFNkMNTj80AAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B118" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C118" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2023-01-27T07:06:58.348Z</v>
+      </c>
+      <c r="E118" t="str">
+        <v>AgACAgIAAxkDAAMZY9N4EiuOZZcBKd2o9I5hbBSx4bIAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B119" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C119" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2023-01-27T07:04:17.110Z</v>
+      </c>
+      <c r="E119" t="str">
+        <v>AgACAgIAAxkDAAMYY9N3cLRG2xNre6BCM16YMlVi-twAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B120" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C120" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2023-01-27T07:03:43.839Z</v>
+      </c>
+      <c r="E120" t="str">
+        <v>AgACAgIAAxkDAAMWY9N3T5aqdxjck68ae1G0UvjLfZsAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Akrom</v>
+      </c>
+      <c r="B121" t="str">
+        <v>+998971234567</v>
+      </c>
+      <c r="C121" t="str">
+        <v>@Khodzas</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2023-01-27T07:02:10.410Z</v>
+      </c>
+      <c r="E121" t="str">
+        <v>AgACAgIAAxkDAAMTY9N28lMs0ZTMyHEjfuG-wxEewjoAAmDHMRvu2ZhKlQLng1flgIgBAAMCAANzAAMtBA</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E121"/>
   </ignoredErrors>
 </worksheet>
 </file>